--- a/Toolchain/Summary.xlsx
+++ b/Toolchain/Summary.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GPURepair\Toolchain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B164B8-59B3-4999-818C-8FF84CE4A074}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB8219-4FC7-460C-85EC-E1DD52411987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6595D98C-436C-4E92-BF09-D8F0676655E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Explanations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$C$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="208">
   <si>
     <t>align</t>
   </si>
@@ -564,9 +565,6 @@
     <t>warpsync\shuffle</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Repaired</t>
   </si>
   <si>
@@ -598,6 +596,71 @@
   </si>
   <si>
     <t>No Changes</t>
+  </si>
+  <si>
+    <t>Cannot be Repaired</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>atomicAdd adds the value to the given address location and returns the old value.
+If the execution is thread 0 before thread 1 then j will take the values 0 and 1 in each iteration.
+However if the execution is thread 1 before thread 0 then j will take the values 1 and 1 in both iterations causing a race.</t>
+  </si>
+  <si>
+    <t>The value of j is the same for both the threads causing a race.</t>
+  </si>
+  <si>
+    <t>Assertion failures</t>
+  </si>
+  <si>
+    <t>Removed an unnecessary barrier</t>
+  </si>
+  <si>
+    <t>state is a shared variable and two threads might write a random number into it at the same time</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable A[0]</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable a</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable q.p[4][0]</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable q.p[0]</t>
+  </si>
+  <si>
+    <t>Null pointer error</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable p[0]</t>
+  </si>
+  <si>
+    <t>A benign write-write race since all the thread are writing to the same set of variables with the same set of values</t>
+  </si>
+  <si>
+    <t>All threads are writing into the same variable pairs[42]</t>
+  </si>
+  <si>
+    <t>Memory access error</t>
+  </si>
+  <si>
+    <t>Threads 15 and 200 write to the same location</t>
+  </si>
+  <si>
+    <t>All the threads write into the same set of locations</t>
+  </si>
+  <si>
+    <t>Inter block race</t>
+  </si>
+  <si>
+    <t>Added the barrier at the right line</t>
+  </si>
+  <si>
+    <t>Timeout</t>
   </si>
 </sst>
 </file>
@@ -641,10 +704,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,1976 +1030,2382 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B0E26-D7CE-4955-ADF7-A97EB2D0E970}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D44" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D62" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D77" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>183</v>
-      </c>
-      <c r="C83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B83" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B84" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="D95" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B96" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>184</v>
-      </c>
-      <c r="C100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>183</v>
-      </c>
-      <c r="C103" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="D104" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B105" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>183</v>
-      </c>
-      <c r="C106" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>183</v>
-      </c>
-      <c r="C122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="D122" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>183</v>
-      </c>
-      <c r="C123" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B123" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>183</v>
-      </c>
-      <c r="C124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>181</v>
-      </c>
-      <c r="C156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>181</v>
-      </c>
-      <c r="C157" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>182</v>
-      </c>
-      <c r="C167" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C171" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="D171" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C170" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>183</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="C172" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>183</v>
-      </c>
-      <c r="C172" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="D172" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>183</v>
-      </c>
-      <c r="C173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B173" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B174" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>182</v>
-      </c>
-      <c r="C175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C177" xr:uid="{C1A4C989-2843-4C74-A88C-4C53EE30FD6E}">
     <filterColumn colId="2">
-      <filters>
-        <filter val="Repaired"/>
-        <filter val="Unknown"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F5B62-F61C-49DA-A731-6B44C53F39CA}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>